--- a/biology/Zoologie/Ardipithèque/Ardipithèque.xlsx
+++ b/biology/Zoologie/Ardipithèque/Ardipithèque.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ardipith%C3%A8que</t>
+          <t>Ardipithèque</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ardipithecus
 Ardipithecus (les ardipithèques) est un genre éteint de la tribu des Hominini, dans l'ordre des Primates. Son nom a été construit sur l'afar ardi (« terre ») et sur le grec πίθηκος / pithêkos (« singe »), et signifie donc « singe terrestre ».
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ardipith%C3%A8que</t>
+          <t>Ardipithèque</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Position phylogénétique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Phylogénie des genres actuels et fossiles d'Homininés :
 Les premiers restes attribués à Ardipithecus sont des fragments de mâchoire découverts par Tim White et son équipe dans la moyenne vallée de l'Awash en Éthiopie en 1992. Pour les inventeurs, il s’agit d'un ancêtre du genre Homo en raison d'une similarité de ses dents avec celles des australopithèques. Les fossiles en question avaient d'ailleurs initialement été attribués à ce genre.
-Toutefois, comme il partage un certain nombre de traits[Lesquels ?] avec les grands singes africains (chimpanzés et gorilles), des paléoprimatologues français, parmi lesquels les inventeurs d'Orrorin tugenensis, le situent dans l'ascendance des chimpanzés plutôt que dans celle des humains[1].
+Toutefois, comme il partage un certain nombre de traits[Lesquels ?] avec les grands singes africains (chimpanzés et gorilles), des paléoprimatologues français, parmi lesquels les inventeurs d'Orrorin tugenensis, le situent dans l'ascendance des chimpanzés plutôt que dans celle des humains.
 En l'absence de description des restes postcrâniens (dont une phalange du gros orteil), il est impossible de trancher pour l'instant. De même, il est impossible de statuer sur l'éventuel degré[Combien ?] de bipédie ou sur le mode de vie de ce taxon.
 </t>
         </is>
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ardipith%C3%A8que</t>
+          <t>Ardipithèque</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Deux sous-espèces ou deux espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les fossiles rattachés au genre Ardipithecus présentent une certaine variabilité, interprétée différemment suivant les auteurs :
 certains considèrent qu’il s’agit de deux sous-espèces :
